--- a/Project1/Reports/Report.xlsx
+++ b/Project1/Reports/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -38,31 +38,46 @@
     <t>Отдел</t>
   </si>
   <si>
+    <t>приветик</t>
+  </si>
+  <si>
+    <t>321321</t>
+  </si>
+  <si>
+    <t>120220</t>
+  </si>
+  <si>
+    <t>отдела</t>
+  </si>
+  <si>
+    <t>аыф</t>
+  </si>
+  <si>
     <t>выф</t>
   </si>
   <si>
+    <t>выфвфы</t>
+  </si>
+  <si>
     <t>выфвыф</t>
   </si>
   <si>
-    <t>выфвфы</t>
-  </si>
-  <si>
-    <t>вфы</t>
-  </si>
-  <si>
-    <t>вфывфы</t>
-  </si>
-  <si>
-    <t>вфыв</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>dasdsa</t>
-  </si>
-  <si>
-    <t>dsadsa</t>
+    <t>ыфв</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>21321</t>
+  </si>
+  <si>
+    <t>ывф</t>
+  </si>
+  <si>
+    <t>вы</t>
+  </si>
+  <si>
+    <t>фвыф</t>
   </si>
 </sst>
 </file>
@@ -108,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -142,7 +157,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -157,91 +172,117 @@
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
